--- a/cautelaarmamento/subcategorias.xlsx
+++ b/cautelaarmamento/subcategorias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junior\Desktop\PROGRAMAS\meusprojeto\controle-de-armamento\cautelaarmamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCO\Documents\GitHub\controle-de-armamento\cautelaarmamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DAECE-1486-471E-8837-21895DFA4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7030F4-71E3-4F91-8546-F5C05DAEF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DC615D0-E787-4991-961D-5F5CA5762244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DC615D0-E787-4991-961D-5F5CA5762244}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
   <si>
     <t>4ª CIA</t>
   </si>
@@ -208,6 +208,171 @@
   </si>
   <si>
     <t>Disponível</t>
+  </si>
+  <si>
+    <t>Mike 01</t>
+  </si>
+  <si>
+    <t>Mike 02</t>
+  </si>
+  <si>
+    <t>VP 002</t>
+  </si>
+  <si>
+    <t>VIATURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMBEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD97LC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JFA05220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCA01423 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ª CIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">214/2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">114/2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNSP </t>
+  </si>
+  <si>
+    <t>03 CARREGADORES</t>
+  </si>
+  <si>
+    <t>IMBEL</t>
+  </si>
+  <si>
+    <t>M968</t>
+  </si>
+  <si>
+    <t>S/T</t>
+  </si>
+  <si>
+    <t>GR032/1992</t>
+  </si>
+  <si>
+    <t>PMMA</t>
+  </si>
+  <si>
+    <t>c/luneta</t>
+  </si>
+  <si>
+    <t>TAURUS</t>
+  </si>
+  <si>
+    <t>PT100</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>SAY19124</t>
+  </si>
+  <si>
+    <t>SAY19137</t>
+  </si>
+  <si>
+    <t>SAY19139</t>
+  </si>
+  <si>
+    <t>SAT69660</t>
+  </si>
+  <si>
+    <t>SAT69699</t>
+  </si>
+  <si>
+    <t>SAT69702</t>
+  </si>
+  <si>
+    <t>SAT69705</t>
+  </si>
+  <si>
+    <t>SAT69721</t>
+  </si>
+  <si>
+    <t>SZE18908</t>
+  </si>
+  <si>
+    <t>SZE18923</t>
+  </si>
+  <si>
+    <t>SZE18926</t>
+  </si>
+  <si>
+    <t>GR223/2012</t>
+  </si>
+  <si>
+    <t>COM 03 CARREGADORES C/Nº DA PT 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECTA/ FEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>OC0020277.236</t>
+  </si>
+  <si>
+    <t>OC0020277.237</t>
+  </si>
+  <si>
+    <t>OC0009978.0005</t>
+  </si>
+  <si>
+    <t>OC0009978.0006</t>
+  </si>
+  <si>
+    <t>OC0009979.0004</t>
+  </si>
+  <si>
+    <t>OC0009979.0005</t>
+  </si>
+  <si>
+    <t>OC0009979.0030</t>
+  </si>
+  <si>
+    <t>014/2023</t>
+  </si>
+  <si>
+    <t>134/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134/2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120/2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVO </t>
+  </si>
+  <si>
+    <t>SSMAM DAL/2</t>
   </si>
 </sst>
 </file>
@@ -217,7 +382,14 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,55 +399,34 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,54 +463,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,586 +839,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F4DC9B-7597-46D5-A916-209C6B008296}">
-  <dimension ref="B1:Z13"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:Y38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E2" s="4">
         <v>2013</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11">
+      <c r="E3" s="4">
         <v>2013</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="O3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="7"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="4">
         <v>2017</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="1" t="s">
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="1" t="s">
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2020</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="3">
+        <v>23</v>
+      </c>
+      <c r="T6" s="3">
+        <v>23357</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="X6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="1">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="L7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="O7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="1">
-        <v>23357</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="R7" s="3">
+        <v>68</v>
+      </c>
+      <c r="T7" s="3">
+        <v>23360</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="Y7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="V7" s="7"/>
+      <c r="X7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="3">
+        <v>605</v>
+      </c>
+      <c r="T8" s="3">
+        <v>21374</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="X8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="3">
+        <v>606</v>
+      </c>
+      <c r="T9" s="3">
+        <v>21375</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="X9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="3">
+        <v>607</v>
+      </c>
+      <c r="T10" s="3">
+        <v>21376</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="X10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="X11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>30</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="S13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>30</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="1">
-        <v>23360</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="17"/>
-      <c r="Y8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1">
-        <v>605</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="L15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>7.62</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>5</v>
+      </c>
+      <c r="R15" s="16">
+        <v>129649</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="1">
-        <v>21374</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="17"/>
-      <c r="Y9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="1">
-        <v>606</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="L16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>12</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="10">
+        <v>38337</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="1">
-        <v>21375</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="17"/>
-      <c r="Y10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1">
-        <v>607</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="L17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>12</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" s="10">
+        <v>38357</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" s="1">
-        <v>21376</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="17"/>
-      <c r="Y11" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="L18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>12</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="10">
+        <v>38359</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="17"/>
-      <c r="Y12" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="9">
-        <v>42248</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="L19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>12</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" s="10">
+        <v>38384</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="Y13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="L20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>12</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="10">
+        <v>38397</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V20" s="7"/>
+      <c r="W20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>12</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="10">
+        <v>38400</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>12</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="10">
+        <v>38403</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>12</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="10">
+        <v>38414</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>12</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" s="10">
+        <v>38420</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X24" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>12</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" s="10">
+        <v>38423</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X25" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>12</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T26" s="10">
+        <v>38425</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X26" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S27" s="10">
+        <v>63210</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V27" s="17">
+        <v>47058</v>
+      </c>
+      <c r="X27" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S28" s="10">
+        <v>63211</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V28" s="17">
+        <v>47058</v>
+      </c>
+      <c r="X28" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V29" s="18">
+        <v>46693</v>
+      </c>
+      <c r="X29" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V30" s="18">
+        <v>46693</v>
+      </c>
+      <c r="X30" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V31" s="18">
+        <v>46693</v>
+      </c>
+      <c r="X31" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="18">
+        <v>46693</v>
+      </c>
+      <c r="X32" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="19">
+        <v>68288433</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V33" s="18">
+        <v>45517</v>
+      </c>
+      <c r="X33" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" s="19">
+        <v>68288434</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V34" s="18">
+        <v>45517</v>
+      </c>
+      <c r="X34" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R35" s="19">
+        <v>68288439</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="18">
+        <v>45517</v>
+      </c>
+      <c r="X35" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" s="19">
+        <v>68288436</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V36" s="18">
+        <v>45517</v>
+      </c>
+      <c r="X36" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R37" s="19">
+        <v>68288435</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V37" s="18">
+        <v>45517</v>
+      </c>
+      <c r="X37" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V38" s="18">
+        <v>46693</v>
+      </c>
+      <c r="X38" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>